--- a/medicine/Pharmacie/5-MeO-DMT/5-MeO-DMT.xlsx
+++ b/medicine/Pharmacie/5-MeO-DMT/5-MeO-DMT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La 5-MeO-DMT ou 5-méthoxy-diméthyltryptamine est une substance psychotrope puissante (souvent synthétique) utilisée comme drogue. Elle est considérée comme un stupéfiant dans certains pays.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fut synthétisée pour la première fois en 1936.
 </t>
@@ -543,7 +557,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La 5-MeO-DMT est un dérivé de la tryptamine (composé aromatique), dans lequel
 les atomes d'hydrogène à l'extrémité de la chaîne carbonée sont remplacés par des groupements méthyle (comme dans la DMT) ;
@@ -577,11 +593,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'utilisation de cette molécule à des fins thérapeutiques fait l'objet de recherches[2],[3]. Elle pourrait notamment aider les toxicomanes à réduire leur dépendance de certaines drogues addictives, comme la cocaïne ou l'héroïne[4].
-Développement clinique
-La 5-MeO-DMT est étudiée et développée pour ses potentiels effets thérapeutiques chez les patients souffrant de dépression résistante (DR)[5]. Une étude clinique sur des volontaires sains a été réalisée par GH Research. Une nouvelle étude est en cours sur des patients souffrant de DR[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilisation de cette molécule à des fins thérapeutiques fait l'objet de recherches,. Elle pourrait notamment aider les toxicomanes à réduire leur dépendance de certaines drogues addictives, comme la cocaïne ou l'héroïne.
 </t>
         </is>
       </c>
@@ -607,51 +623,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Usage médical</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Développement clinique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 5-MeO-DMT est étudiée et développée pour ses potentiels effets thérapeutiques chez les patients souffrant de dépression résistante (DR). Une étude clinique sur des volontaires sains a été réalisée par GH Research. Une nouvelle étude est en cours sur des patients souffrant de DR.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5-MeO-DMT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/5-MeO-DMT</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Usage traditionnel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son usage pour ses propriétés psychotropes remonte à plusieurs millénaires[7],[8],[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son usage pour ses propriétés psychotropes remonte à plusieurs millénaires.
 En effet, elle est présente à l'état naturel dans de nombreuses plantes, dont certaines entrent dans la composition de préparations hallucinogènes artisanales comme le breuvage ayahuasca ou la poudre à priser yopo qui sont utilisés lors de cérémonies rituelles.
 La 5-MeO-DMT existe aussi à l'état naturel dans le venin d'un crapaud (le Bufo alvarius) des plaines du désert de Sonora aux États-Unis.  Lorsque ce venin est fumé, ses toxines sont neutralisées, mais la 5-MeO-DMT reste active.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5-MeO-DMT</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/5-MeO-DMT</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Usage détourné et récréatif</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La 5-MeO-DMT est un produit apparenté à la DMT, avec laquelle elle partage les modes de consommation (essentiellement fumé), la rapidité de l'effet et sa courte durée.
-La sensation est celle d'une disparition de la réalité environnante qui est souvent décrite comme un « trou noir » ou un « vide »[10]. Des expériences de mort imminente sont également relatées, comme pour la DMT.
-La dose est également de plus faible quantité, environ 10 milligrammes lorsque la 5-MeO DMT est fumée[10].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -673,10 +695,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Usage détourné et récréatif</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 5-MeO-DMT est un produit apparenté à la DMT, avec laquelle elle partage les modes de consommation (essentiellement fumé), la rapidité de l'effet et sa courte durée.
+La sensation est celle d'une disparition de la réalité environnante qui est souvent décrite comme un « trou noir » ou un « vide ». Des expériences de mort imminente sont également relatées, comme pour la DMT.
+La dose est également de plus faible quantité, environ 10 milligrammes lorsque la 5-MeO DMT est fumée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5-MeO-DMT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/5-MeO-DMT</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Molécule voisine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est souvent confondue ou vendue pour de la DMT.
 </t>
